--- a/March'21/03.03.2021/Daily Sales Info..xlsx
+++ b/March'21/03.03.2021/Daily Sales Info..xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="53">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>Roki</t>
+  </si>
+  <si>
+    <t>movil</t>
   </si>
 </sst>
 </file>
@@ -15239,15 +15242,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'9'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'9'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'9'!G29</f>
@@ -15255,11 +15258,11 @@
       </c>
       <c r="H4" s="2">
         <f>'9'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'9'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'9'!J29</f>
@@ -15267,7 +15270,7 @@
       </c>
       <c r="K4" s="2">
         <f>'9'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'9'!L29</f>
@@ -16417,15 +16420,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -16433,11 +16436,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -16445,7 +16448,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -16789,15 +16792,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'10'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'10'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'10'!G29</f>
@@ -16805,11 +16808,11 @@
       </c>
       <c r="H4" s="2">
         <f>'10'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'10'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'10'!J29</f>
@@ -16817,7 +16820,7 @@
       </c>
       <c r="K4" s="2">
         <f>'10'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'10'!L29</f>
@@ -17967,15 +17970,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -17983,11 +17986,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -17995,7 +17998,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -18339,15 +18342,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'11'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'11'!G29</f>
@@ -18355,11 +18358,11 @@
       </c>
       <c r="H4" s="2">
         <f>'11'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'11'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'11'!J29</f>
@@ -18367,7 +18370,7 @@
       </c>
       <c r="K4" s="2">
         <f>'11'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'11'!L29</f>
@@ -19517,15 +19520,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -19533,11 +19536,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -19545,7 +19548,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -19889,15 +19892,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'12'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'12'!G29</f>
@@ -19905,11 +19908,11 @@
       </c>
       <c r="H4" s="2">
         <f>'12'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'12'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'12'!J29</f>
@@ -19917,7 +19920,7 @@
       </c>
       <c r="K4" s="2">
         <f>'12'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'12'!L29</f>
@@ -21067,15 +21070,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -21083,11 +21086,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -21095,7 +21098,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -21439,15 +21442,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'13'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'13'!G29</f>
@@ -21455,11 +21458,11 @@
       </c>
       <c r="H4" s="2">
         <f>'13'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'13'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'13'!J29</f>
@@ -21467,7 +21470,7 @@
       </c>
       <c r="K4" s="2">
         <f>'13'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'13'!L29</f>
@@ -22617,15 +22620,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -22633,11 +22636,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -22645,7 +22648,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -22989,15 +22992,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'14'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'14'!G29</f>
@@ -23005,11 +23008,11 @@
       </c>
       <c r="H4" s="2">
         <f>'14'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'14'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'14'!J29</f>
@@ -23017,7 +23020,7 @@
       </c>
       <c r="K4" s="2">
         <f>'14'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'14'!L29</f>
@@ -24167,15 +24170,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -24183,11 +24186,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -24195,7 +24198,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -24539,15 +24542,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'15'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'15'!G29</f>
@@ -24555,11 +24558,11 @@
       </c>
       <c r="H4" s="2">
         <f>'15'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'15'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'15'!J29</f>
@@ -24567,7 +24570,7 @@
       </c>
       <c r="K4" s="2">
         <f>'15'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'15'!L29</f>
@@ -25717,15 +25720,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -25733,11 +25736,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -25745,7 +25748,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -26089,15 +26092,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'16'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'16'!G29</f>
@@ -26105,11 +26108,11 @@
       </c>
       <c r="H4" s="2">
         <f>'16'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'16'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'16'!J29</f>
@@ -26117,7 +26120,7 @@
       </c>
       <c r="K4" s="2">
         <f>'16'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'16'!L29</f>
@@ -27267,15 +27270,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -27283,11 +27286,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -27295,7 +27298,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -27639,15 +27642,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'17'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'17'!G29</f>
@@ -27655,11 +27658,11 @@
       </c>
       <c r="H4" s="2">
         <f>'17'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'17'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'17'!J29</f>
@@ -27667,7 +27670,7 @@
       </c>
       <c r="K4" s="2">
         <f>'17'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'17'!L29</f>
@@ -28817,15 +28820,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -28833,11 +28836,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -28845,7 +28848,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -29189,15 +29192,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'18'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'18'!G29</f>
@@ -29205,11 +29208,11 @@
       </c>
       <c r="H4" s="2">
         <f>'18'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'18'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'18'!J29</f>
@@ -29217,7 +29220,7 @@
       </c>
       <c r="K4" s="2">
         <f>'18'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'18'!L29</f>
@@ -30367,15 +30370,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -30383,11 +30386,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -30395,7 +30398,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -32484,15 +32487,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'19'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'19'!G29</f>
@@ -32500,11 +32503,11 @@
       </c>
       <c r="H4" s="2">
         <f>'19'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'19'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'19'!J29</f>
@@ -32512,7 +32515,7 @@
       </c>
       <c r="K4" s="2">
         <f>'19'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'19'!L29</f>
@@ -33662,15 +33665,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -33678,11 +33681,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -33690,7 +33693,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -34034,15 +34037,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'20'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'20'!G29</f>
@@ -34050,11 +34053,11 @@
       </c>
       <c r="H4" s="2">
         <f>'20'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'20'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'20'!J29</f>
@@ -34062,7 +34065,7 @@
       </c>
       <c r="K4" s="2">
         <f>'20'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'20'!L29</f>
@@ -35212,15 +35215,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -35228,11 +35231,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -35240,7 +35243,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -35584,15 +35587,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'21'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'21'!G29</f>
@@ -35600,11 +35603,11 @@
       </c>
       <c r="H4" s="2">
         <f>'21'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'21'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'21'!J29</f>
@@ -35612,7 +35615,7 @@
       </c>
       <c r="K4" s="2">
         <f>'21'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'21'!L29</f>
@@ -36762,15 +36765,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -36778,11 +36781,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -36790,7 +36793,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -37134,15 +37137,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'22'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'22'!G29</f>
@@ -37150,11 +37153,11 @@
       </c>
       <c r="H4" s="2">
         <f>'22'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'22'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'22'!J29</f>
@@ -37162,7 +37165,7 @@
       </c>
       <c r="K4" s="2">
         <f>'22'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'22'!L29</f>
@@ -38312,15 +38315,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -38328,11 +38331,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -38340,7 +38343,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -38684,15 +38687,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'23'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'23'!G29</f>
@@ -38700,11 +38703,11 @@
       </c>
       <c r="H4" s="2">
         <f>'23'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'23'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'23'!J29</f>
@@ -38712,7 +38715,7 @@
       </c>
       <c r="K4" s="2">
         <f>'23'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'23'!L29</f>
@@ -39862,15 +39865,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -39878,11 +39881,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -39890,7 +39893,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -40234,15 +40237,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'24'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'24'!G29</f>
@@ -40250,11 +40253,11 @@
       </c>
       <c r="H4" s="2">
         <f>'24'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'24'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'24'!J29</f>
@@ -40262,7 +40265,7 @@
       </c>
       <c r="K4" s="2">
         <f>'24'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'24'!L29</f>
@@ -41412,15 +41415,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -41428,11 +41431,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -41440,7 +41443,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -41784,15 +41787,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'25'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'25'!G29</f>
@@ -41800,11 +41803,11 @@
       </c>
       <c r="H4" s="2">
         <f>'25'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'25'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'25'!J29</f>
@@ -41812,7 +41815,7 @@
       </c>
       <c r="K4" s="2">
         <f>'25'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'25'!L29</f>
@@ -42962,15 +42965,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -42978,11 +42981,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -42990,7 +42993,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -43334,15 +43337,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'26'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'26'!G29</f>
@@ -43350,11 +43353,11 @@
       </c>
       <c r="H4" s="2">
         <f>'26'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'26'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'26'!J29</f>
@@ -43362,7 +43365,7 @@
       </c>
       <c r="K4" s="2">
         <f>'26'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'26'!L29</f>
@@ -44512,15 +44515,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -44528,11 +44531,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -44540,7 +44543,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -44884,15 +44887,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'27'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'27'!G29</f>
@@ -44900,11 +44903,11 @@
       </c>
       <c r="H4" s="2">
         <f>'27'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'27'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'27'!J29</f>
@@ -44912,7 +44915,7 @@
       </c>
       <c r="K4" s="2">
         <f>'27'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'27'!L29</f>
@@ -46062,15 +46065,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -46078,11 +46081,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -46090,7 +46093,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -46434,15 +46437,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'28'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'28'!G29</f>
@@ -46450,11 +46453,11 @@
       </c>
       <c r="H4" s="2">
         <f>'28'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'28'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'28'!J29</f>
@@ -46462,7 +46465,7 @@
       </c>
       <c r="K4" s="2">
         <f>'28'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'28'!L29</f>
@@ -47612,15 +47615,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -47628,11 +47631,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -47640,7 +47643,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -47889,7 +47892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
@@ -49706,15 +49709,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'29'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'29'!G29</f>
@@ -49722,11 +49725,11 @@
       </c>
       <c r="H4" s="2">
         <f>'29'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'29'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'29'!J29</f>
@@ -49734,7 +49737,7 @@
       </c>
       <c r="K4" s="2">
         <f>'29'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'29'!L29</f>
@@ -50884,15 +50887,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -50900,11 +50903,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -50912,7 +50915,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -51256,15 +51259,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'30'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'30'!G29</f>
@@ -51272,11 +51275,11 @@
       </c>
       <c r="H4" s="2">
         <f>'30'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'30'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'30'!J29</f>
@@ -51284,7 +51287,7 @@
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'30'!L29</f>
@@ -52434,15 +52437,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -52450,11 +52453,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -52462,7 +52465,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -53731,15 +53734,15 @@
       </c>
       <c r="D17" s="21">
         <f>'1'!D17+'2'!D17+'3'!D17+'4'!D17+'5'!D17+'6'!D17+'7'!D17+'8'!D17+'9'!D17+'10'!D17+'11'!D17+'12'!D17+'13'!D17+'14'!D17+'15'!D17+'16'!D17+'17'!D17+'18'!D17+'19'!D17+'20'!D17+'21'!D17+'22'!D17+'23'!D17+'24'!D17+'25'!D17+'26'!D17+'27'!D17+'28'!D17+'29'!D17+'30'!D17+'31'!D17</f>
-        <v>11890</v>
+        <v>19314</v>
       </c>
       <c r="E17" s="21">
         <f>'1'!E17+'2'!E17+'3'!E17+'4'!E17+'5'!E17+'6'!E17+'7'!E17+'8'!E17+'9'!E17+'10'!E17+'11'!E17+'12'!E17+'13'!E17+'14'!E17+'15'!E17+'16'!E17+'17'!E17+'18'!E17+'19'!E17+'20'!E17+'21'!E17+'22'!E17+'23'!E17+'24'!E17+'25'!E17+'26'!E17+'27'!E17+'28'!E17+'29'!E17+'30'!E17+'31'!E17</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F17" s="21">
         <f>'1'!F17+'2'!F17+'3'!F17+'4'!F17+'5'!F17+'6'!F17+'7'!F17+'8'!F17+'9'!F17+'10'!F17+'11'!F17+'12'!F17+'13'!F17+'14'!F17+'15'!F17+'16'!F17+'17'!F17+'18'!F17+'19'!F17+'20'!F17+'21'!F17+'22'!F17+'23'!F17+'24'!F17+'25'!F17+'26'!F17+'27'!F17+'28'!F17+'29'!F17+'30'!F17+'31'!F17</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17" s="21">
         <f>'1'!G17+'2'!G17+'3'!G17+'4'!G17+'5'!G17+'6'!G17+'7'!G17+'8'!G17+'9'!G17+'10'!G17+'11'!G17+'12'!G17+'13'!G17+'14'!G17+'15'!G17+'16'!G17+'17'!G17+'18'!G17+'19'!G17+'20'!G17+'21'!G17+'22'!G17+'23'!G17+'24'!G17+'25'!G17+'26'!G17+'27'!G17+'28'!G17+'29'!G17+'30'!G17+'31'!G17</f>
@@ -53747,11 +53750,11 @@
       </c>
       <c r="H17" s="21">
         <f>'1'!H17+'2'!H17+'3'!H17+'4'!H17+'5'!H17+'6'!H17+'7'!H17+'8'!H17+'9'!H17+'10'!H17+'11'!H17+'12'!H17+'13'!H17+'14'!H17+'15'!H17+'16'!H17+'17'!H17+'18'!H17+'19'!H17+'20'!H17+'21'!H17+'22'!H17+'23'!H17+'24'!H17+'25'!H17+'26'!H17+'27'!H17+'28'!H17+'29'!H17+'30'!H17+'31'!H17</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="I17" s="21">
         <f>'1'!I17+'2'!I17+'3'!I17+'4'!I17+'5'!I17+'6'!I17+'7'!I17+'8'!I17+'9'!I17+'10'!I17+'11'!I17+'12'!I17+'13'!I17+'14'!I17+'15'!I17+'16'!I17+'17'!I17+'18'!I17+'19'!I17+'20'!I17+'21'!I17+'22'!I17+'23'!I17+'24'!I17+'25'!I17+'26'!I17+'27'!I17+'28'!I17+'29'!I17+'30'!I17+'31'!I17</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J17" s="21">
         <f>'1'!J17+'2'!J17+'3'!J17+'4'!J17+'5'!J17+'6'!J17+'7'!J17+'8'!J17+'9'!J17+'10'!J17+'11'!J17+'12'!J17+'13'!J17+'14'!J17+'15'!J17+'16'!J17+'17'!J17+'18'!J17+'19'!J17+'20'!J17+'21'!J17+'22'!J17+'23'!J17+'24'!J17+'25'!J17+'26'!J17+'27'!J17+'28'!J17+'29'!J17+'30'!J17+'31'!J17</f>
@@ -53759,7 +53762,7 @@
       </c>
       <c r="K17" s="21">
         <f>'1'!K17+'2'!K17+'3'!K17+'4'!K17+'5'!K17+'6'!K17+'7'!K17+'8'!K17+'9'!K17+'10'!K17+'11'!K17+'12'!K17+'13'!K17+'14'!K17+'15'!K17+'16'!K17+'17'!K17+'18'!K17+'19'!K17+'20'!K17+'21'!K17+'22'!K17+'23'!K17+'24'!K17+'25'!K17+'26'!K17+'27'!K17+'28'!K17+'29'!K17+'30'!K17+'31'!K17</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L17" s="21">
         <f>'1'!L17+'2'!L17+'3'!L17+'4'!L17+'5'!L17+'6'!L17+'7'!L17+'8'!L17+'9'!L17+'10'!L17+'11'!L17+'12'!L17+'13'!L17+'14'!L17+'15'!L17+'16'!L17+'17'!L17+'18'!L17+'19'!L17+'20'!L17+'21'!L17+'22'!L17+'23'!L17+'24'!L17+'25'!L17+'26'!L17+'27'!L17+'28'!L17+'29'!L17+'30'!L17+'31'!L17</f>
@@ -53767,32 +53770,32 @@
       </c>
       <c r="M17" s="20">
         <f t="shared" si="0"/>
-        <v>14040</v>
+        <v>22664</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>20698</v>
+        <v>31387</v>
       </c>
       <c r="O17" s="25">
         <f t="shared" si="2"/>
-        <v>386.1</v>
+        <v>623.26</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26">
         <f>'1'!Q17+'2'!Q17+'3'!Q17+'4'!Q17+'5'!Q17+'6'!Q17+'7'!Q17+'8'!Q17+'9'!Q17+'10'!Q17+'11'!Q17+'12'!Q17+'13'!Q17+'14'!Q17+'15'!Q17+'16'!Q17+'17'!Q17+'18'!Q17+'19'!Q17+'20'!Q17+'21'!Q17+'22'!Q17+'23'!Q17+'24'!Q17+'25'!Q17+'26'!Q17+'27'!Q17+'28'!Q17+'29'!Q17+'30'!Q17+'31'!Q17</f>
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="R17" s="24">
         <f t="shared" si="3"/>
-        <v>20132.900000000001</v>
+        <v>30503.74</v>
       </c>
       <c r="S17" s="25">
         <f t="shared" si="4"/>
-        <v>133.38</v>
+        <v>215.30799999999999</v>
       </c>
       <c r="T17" s="27">
         <f t="shared" si="5"/>
-        <v>-45.620000000000005</v>
+        <v>-44.692000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75">
@@ -53807,7 +53810,7 @@
       </c>
       <c r="D18" s="21">
         <f>'1'!D18+'2'!D18+'3'!D18+'4'!D18+'5'!D18+'6'!D18+'7'!D18+'8'!D18+'9'!D18+'10'!D18+'11'!D18+'12'!D18+'13'!D18+'14'!D18+'15'!D18+'16'!D18+'17'!D18+'18'!D18+'19'!D18+'20'!D18+'21'!D18+'22'!D18+'23'!D18+'24'!D18+'25'!D18+'26'!D18+'27'!D18+'28'!D18+'29'!D18+'30'!D18+'31'!D18</f>
-        <v>16149</v>
+        <v>20567</v>
       </c>
       <c r="E18" s="21">
         <f>'1'!E18+'2'!E18+'3'!E18+'4'!E18+'5'!E18+'6'!E18+'7'!E18+'8'!E18+'9'!E18+'10'!E18+'11'!E18+'12'!E18+'13'!E18+'14'!E18+'15'!E18+'16'!E18+'17'!E18+'18'!E18+'19'!E18+'20'!E18+'21'!E18+'22'!E18+'23'!E18+'24'!E18+'25'!E18+'26'!E18+'27'!E18+'28'!E18+'29'!E18+'30'!E18+'31'!E18</f>
@@ -53843,32 +53846,32 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>17529</v>
+        <v>21947</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>20931</v>
+        <v>25349</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>482.04750000000001</v>
+        <v>603.54250000000002</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26">
         <f>'1'!Q18+'2'!Q18+'3'!Q18+'4'!Q18+'5'!Q18+'6'!Q18+'7'!Q18+'8'!Q18+'9'!Q18+'10'!Q18+'11'!Q18+'12'!Q18+'13'!Q18+'14'!Q18+'15'!Q18+'16'!Q18+'17'!Q18+'18'!Q18+'19'!Q18+'20'!Q18+'21'!Q18+'22'!Q18+'23'!Q18+'24'!Q18+'25'!Q18+'26'!Q18+'27'!Q18+'28'!Q18+'29'!Q18+'30'!Q18+'31'!Q18</f>
-        <v>348</v>
+        <v>444</v>
       </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>20100.952499999999</v>
+        <v>24301.4575</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>166.52549999999999</v>
+        <v>208.4965</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>-181.47450000000001</v>
+        <v>-235.5035</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75">
@@ -54111,7 +54114,7 @@
       </c>
       <c r="D22" s="21">
         <f>'1'!D22+'2'!D22+'3'!D22+'4'!D22+'5'!D22+'6'!D22+'7'!D22+'8'!D22+'9'!D22+'10'!D22+'11'!D22+'12'!D22+'13'!D22+'14'!D22+'15'!D22+'16'!D22+'17'!D22+'18'!D22+'19'!D22+'20'!D22+'21'!D22+'22'!D22+'23'!D22+'24'!D22+'25'!D22+'26'!D22+'27'!D22+'28'!D22+'29'!D22+'30'!D22+'31'!D22</f>
-        <v>16814</v>
+        <v>31579</v>
       </c>
       <c r="E22" s="21">
         <f>'1'!E22+'2'!E22+'3'!E22+'4'!E22+'5'!E22+'6'!E22+'7'!E22+'8'!E22+'9'!E22+'10'!E22+'11'!E22+'12'!E22+'13'!E22+'14'!E22+'15'!E22+'16'!E22+'17'!E22+'18'!E22+'19'!E22+'20'!E22+'21'!E22+'22'!E22+'23'!E22+'24'!E22+'25'!E22+'26'!E22+'27'!E22+'28'!E22+'29'!E22+'30'!E22+'31'!E22</f>
@@ -54127,11 +54130,11 @@
       </c>
       <c r="H22" s="21">
         <f>'1'!H22+'2'!H22+'3'!H22+'4'!H22+'5'!H22+'6'!H22+'7'!H22+'8'!H22+'9'!H22+'10'!H22+'11'!H22+'12'!H22+'13'!H22+'14'!H22+'15'!H22+'16'!H22+'17'!H22+'18'!H22+'19'!H22+'20'!H22+'21'!H22+'22'!H22+'23'!H22+'24'!H22+'25'!H22+'26'!H22+'27'!H22+'28'!H22+'29'!H22+'30'!H22+'31'!H22</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" s="21">
         <f>'1'!I22+'2'!I22+'3'!I22+'4'!I22+'5'!I22+'6'!I22+'7'!I22+'8'!I22+'9'!I22+'10'!I22+'11'!I22+'12'!I22+'13'!I22+'14'!I22+'15'!I22+'16'!I22+'17'!I22+'18'!I22+'19'!I22+'20'!I22+'21'!I22+'22'!I22+'23'!I22+'24'!I22+'25'!I22+'26'!I22+'27'!I22+'28'!I22+'29'!I22+'30'!I22+'31'!I22</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J22" s="21">
         <f>'1'!J22+'2'!J22+'3'!J22+'4'!J22+'5'!J22+'6'!J22+'7'!J22+'8'!J22+'9'!J22+'10'!J22+'11'!J22+'12'!J22+'13'!J22+'14'!J22+'15'!J22+'16'!J22+'17'!J22+'18'!J22+'19'!J22+'20'!J22+'21'!J22+'22'!J22+'23'!J22+'24'!J22+'25'!J22+'26'!J22+'27'!J22+'28'!J22+'29'!J22+'30'!J22+'31'!J22</f>
@@ -54139,7 +54142,7 @@
       </c>
       <c r="K22" s="21">
         <f>'1'!K22+'2'!K22+'3'!K22+'4'!K22+'5'!K22+'6'!K22+'7'!K22+'8'!K22+'9'!K22+'10'!K22+'11'!K22+'12'!K22+'13'!K22+'14'!K22+'15'!K22+'16'!K22+'17'!K22+'18'!K22+'19'!K22+'20'!K22+'21'!K22+'22'!K22+'23'!K22+'24'!K22+'25'!K22+'26'!K22+'27'!K22+'28'!K22+'29'!K22+'30'!K22+'31'!K22</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L22" s="21">
         <f>'1'!L22+'2'!L22+'3'!L22+'4'!L22+'5'!L22+'6'!L22+'7'!L22+'8'!L22+'9'!L22+'10'!L22+'11'!L22+'12'!L22+'13'!L22+'14'!L22+'15'!L22+'16'!L22+'17'!L22+'18'!L22+'19'!L22+'20'!L22+'21'!L22+'22'!L22+'23'!L22+'24'!L22+'25'!L22+'26'!L22+'27'!L22+'28'!L22+'29'!L22+'30'!L22+'31'!L22</f>
@@ -54147,32 +54150,32 @@
       </c>
       <c r="M22" s="20">
         <f t="shared" si="0"/>
-        <v>19314</v>
+        <v>34979</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>29046</v>
+        <v>51351</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>531.13499999999999</v>
+        <v>961.92250000000001</v>
       </c>
       <c r="P22" s="26"/>
       <c r="Q22" s="26">
         <f>'1'!Q22+'2'!Q22+'3'!Q22+'4'!Q22+'5'!Q22+'6'!Q22+'7'!Q22+'8'!Q22+'9'!Q22+'10'!Q22+'11'!Q22+'12'!Q22+'13'!Q22+'14'!Q22+'15'!Q22+'16'!Q22+'17'!Q22+'18'!Q22+'19'!Q22+'20'!Q22+'21'!Q22+'22'!Q22+'23'!Q22+'24'!Q22+'25'!Q22+'26'!Q22+'27'!Q22+'28'!Q22+'29'!Q22+'30'!Q22+'31'!Q22</f>
-        <v>187</v>
+        <v>717</v>
       </c>
       <c r="R22" s="24">
         <f t="shared" si="3"/>
-        <v>28327.865000000002</v>
+        <v>49672.077499999999</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
-        <v>183.483</v>
+        <v>332.3005</v>
       </c>
       <c r="T22" s="27">
         <f t="shared" si="5"/>
-        <v>-3.5169999999999959</v>
+        <v>-384.6995</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75">
@@ -54563,15 +54566,15 @@
       <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>353954</v>
+        <v>380561</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>1510</v>
+        <v>1520</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="7"/>
@@ -54579,11 +54582,11 @@
       </c>
       <c r="H28" s="45">
         <f t="shared" si="7"/>
-        <v>3240</v>
+        <v>3440</v>
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
-        <v>1088</v>
+        <v>1125</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="7"/>
@@ -54591,7 +54594,7 @@
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -54599,15 +54602,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>418354</v>
+        <v>447061</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>734879</v>
+        <v>772291</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>11504.735000000002</v>
+        <v>12294.177500000003</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -54615,19 +54618,19 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>4217</v>
+        <v>4924</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>719157.26500000001</v>
+        <v>755072.82250000001</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>3974.3630000000003</v>
+        <v>4247.0794999999998</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>-242.63700000000011</v>
+        <v>-676.92050000000006</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1">
@@ -54638,15 +54641,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -54654,11 +54657,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -54666,7 +54669,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -56597,11 +56600,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57283,7 +57286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:21" ht="15.75">
       <c r="A17" s="28">
         <v>11</v>
       </c>
@@ -57293,43 +57296,57 @@
       <c r="C17" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="D17" s="29">
+        <v>7424</v>
+      </c>
+      <c r="E17" s="30">
+        <v>10</v>
+      </c>
+      <c r="F17" s="30">
+        <v>10</v>
+      </c>
       <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="20"/>
+      <c r="H17" s="30">
+        <v>100</v>
+      </c>
+      <c r="I17" s="20">
+        <v>7</v>
+      </c>
       <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="K17" s="20">
+        <v>4</v>
+      </c>
       <c r="L17" s="20"/>
       <c r="M17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8624</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10689</v>
       </c>
       <c r="O17" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>237.16</v>
       </c>
       <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
+      <c r="Q17" s="26">
+        <v>81</v>
+      </c>
       <c r="R17" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10370.84</v>
       </c>
       <c r="S17" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>81.927999999999997</v>
       </c>
       <c r="T17" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75">
+        <v>0.92799999999999727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75">
       <c r="A18" s="28">
         <v>12</v>
       </c>
@@ -57339,7 +57356,9 @@
       <c r="C18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="29">
+        <v>4418</v>
+      </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
@@ -57350,32 +57369,34 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4418</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4418</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>121.495</v>
       </c>
       <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
+      <c r="Q18" s="26">
+        <v>96</v>
+      </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4200.5050000000001</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>41.970999999999997</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75">
+        <v>-54.029000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75">
       <c r="A19" s="28">
         <v>13</v>
       </c>
@@ -57421,7 +57442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:21" ht="15.75">
       <c r="A20" s="28">
         <v>14</v>
       </c>
@@ -57467,7 +57488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:21" ht="15.75">
       <c r="A21" s="28">
         <v>15</v>
       </c>
@@ -57513,7 +57534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:21" ht="15.75">
       <c r="A22" s="28">
         <v>16</v>
       </c>
@@ -57523,43 +57544,56 @@
       <c r="C22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="29">
+        <v>14765</v>
+      </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="20"/>
+      <c r="H22" s="30">
+        <v>100</v>
+      </c>
+      <c r="I22" s="20">
+        <v>30</v>
+      </c>
       <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20">
+        <v>5</v>
+      </c>
       <c r="L22" s="20"/>
       <c r="M22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15665</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22305</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>430.78750000000002</v>
       </c>
       <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+      <c r="Q22" s="26">
+        <v>530</v>
+      </c>
       <c r="R22" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21344.212500000001</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>148.8175</v>
       </c>
       <c r="T22" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75">
+        <v>-381.1825</v>
+      </c>
+      <c r="U22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75">
       <c r="A23" s="28">
         <v>17</v>
       </c>
@@ -57605,7 +57639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:21" ht="15.75">
       <c r="A24" s="28">
         <v>18</v>
       </c>
@@ -57651,7 +57685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:21" ht="15.75">
       <c r="A25" s="28">
         <v>19</v>
       </c>
@@ -57697,7 +57731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:21" ht="15.75">
       <c r="A26" s="28">
         <v>70</v>
       </c>
@@ -57743,7 +57777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+    <row r="27" spans="1:21" ht="19.5" thickBot="1">
       <c r="A27" s="28">
         <v>21</v>
       </c>
@@ -57789,7 +57823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" thickBot="1">
+    <row r="28" spans="1:21" ht="16.5" thickBot="1">
       <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
@@ -57797,15 +57831,15 @@
       <c r="C28" s="57"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>0</v>
+        <v>26607</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="7"/>
@@ -57813,11 +57847,11 @@
       </c>
       <c r="H28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="7"/>
@@ -57825,7 +57859,7 @@
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -57833,15 +57867,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>28707</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>37412</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>789.4425</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -57849,22 +57883,22 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>35915.557500000003</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>272.7165</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+        <v>-434.2835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" thickBot="1">
       <c r="A29" s="58" t="s">
         <v>45</v>
       </c>
@@ -57872,15 +57906,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -57888,11 +57922,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -57900,7 +57934,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -57915,7 +57949,7 @@
       <c r="S29" s="62"/>
       <c r="T29" s="63"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
@@ -58244,15 +58278,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'4'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'4'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'4'!G29</f>
@@ -58260,11 +58294,11 @@
       </c>
       <c r="H4" s="2">
         <f>'4'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'4'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'4'!J29</f>
@@ -58272,7 +58306,7 @@
       </c>
       <c r="K4" s="2">
         <f>'4'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'4'!L29</f>
@@ -59425,15 +59459,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -59441,11 +59475,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -59453,7 +59487,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -59797,15 +59831,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'5'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'5'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'5'!G29</f>
@@ -59813,11 +59847,11 @@
       </c>
       <c r="H4" s="2">
         <f>'5'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'5'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'5'!J29</f>
@@ -59825,7 +59859,7 @@
       </c>
       <c r="K4" s="2">
         <f>'5'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'5'!L29</f>
@@ -60975,15 +61009,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -60991,11 +61025,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -61003,7 +61037,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -61347,15 +61381,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'6'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'6'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'6'!G29</f>
@@ -61363,11 +61397,11 @@
       </c>
       <c r="H4" s="2">
         <f>'6'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'6'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'6'!J29</f>
@@ -61375,7 +61409,7 @@
       </c>
       <c r="K4" s="2">
         <f>'6'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'6'!L29</f>
@@ -62525,15 +62559,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -62541,11 +62575,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -62553,7 +62587,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -62897,15 +62931,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'7'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'7'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'7'!G29</f>
@@ -62913,11 +62947,11 @@
       </c>
       <c r="H4" s="2">
         <f>'7'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'7'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'7'!J29</f>
@@ -62925,7 +62959,7 @@
       </c>
       <c r="K4" s="2">
         <f>'7'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'7'!L29</f>
@@ -64075,15 +64109,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -64091,11 +64125,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -64103,7 +64137,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -64447,15 +64481,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E4" s="2">
         <f>'8'!E29</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F4" s="2">
         <f>'8'!F29</f>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G4" s="2">
         <f>'8'!G29</f>
@@ -64463,11 +64497,11 @@
       </c>
       <c r="H4" s="2">
         <f>'8'!H29</f>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I4" s="2">
         <f>'8'!I29</f>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J4" s="2">
         <f>'8'!J29</f>
@@ -64475,7 +64509,7 @@
       </c>
       <c r="K4" s="2">
         <f>'8'!K29</f>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L4" s="2">
         <f>'8'!L29</f>
@@ -65625,15 +65659,15 @@
       <c r="C29" s="60"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>757503</v>
+        <v>730896</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -65641,11 +65675,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5430</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>880</v>
+        <v>843</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -65653,7 +65687,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
